--- a/cases/case_examlpe.xlsx
+++ b/cases/case_examlpe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,18 +79,6 @@
   </si>
   <si>
     <t>case_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,16 +95,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">err_codes=1
+    <t xml:space="preserve">err_code=0
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a:select * from t_user_verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:id=4,len=3</t>
+    <t>a:select * from zhuanqian.t_user_verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:len=5,id=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql:select * from testcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页，正常请求</t>
+  </si>
+  <si>
+    <t>/s5/dashboard</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">err_code=0
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "apiHost":"www.b"
+}
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -201,9 +234,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -215,6 +245,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -515,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -527,61 +575,61 @@
     <col min="6" max="6" width="49.125" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="13" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
     <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
     <col min="13" max="13" width="22.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="27">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="108">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -589,45 +637,72 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="27">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="18">
-      <c r="C3" s="7"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="10"/>
+      <c r="D3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" ht="18">
       <c r="D4" s="3"/>
@@ -653,7 +728,6 @@
     <row r="9" spans="1:15" ht="69" customHeight="1">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="5"/>

--- a/cases/case_examlpe.xlsx
+++ b/cases/case_examlpe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>case_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"s":"${id}"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a:len=5,id=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,31 +117,55 @@
     <t>get</t>
   </si>
   <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:len=5,id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:select * from zhuanqian.t_user_verify where id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"err_code":"${err_code}"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/lite.subtask.list</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">err_code=0
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "apiHost":"www.b"
-}
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
+    <t>a:len=5,id=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0
+payload.tasks=id=(249166,249161,249158)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,9 +248,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -575,61 +588,61 @@
     <col min="6" max="6" width="49.125" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="12" customWidth="1"/>
     <col min="10" max="10" width="20.375" customWidth="1"/>
     <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.625" customWidth="1"/>
     <col min="13" max="13" width="22.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="108">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="40.5">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -637,81 +650,103 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="40.5">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="O3" s="13"/>
     </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" ht="27">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" ht="18">
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:15" ht="42">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="E4" s="3"/>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="18">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="J5" s="1"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:15" ht="18">
       <c r="D6" s="2"/>

--- a/cases/case_examlpe.xlsx
+++ b/cases/case_examlpe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,16 +156,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a:len=5,id=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>err_code=0
 payload.tasks=id=(249166,249161,249158)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_task_1</t>
+  </si>
+  <si>
+    <t>开始任务：正常请求</t>
+  </si>
+  <si>
+    <t>/s4/lite.subtask.start</t>
+  </si>
+  <si>
+    <t>err_code=0
+payload.type=1</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>{"task_id":249158}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -278,6 +298,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -673,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>26</v>
@@ -739,14 +771,41 @@
         <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="12"/>
+    <row r="5" spans="1:15" ht="36">
+      <c r="A5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="20">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15" ht="18">
       <c r="D6" s="2"/>
